--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3971.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3971.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241926999975648</v>
+        <v>1.771073460578918</v>
       </c>
       <c r="B1">
-        <v>2.58051256238932</v>
+        <v>1.796207189559937</v>
       </c>
       <c r="C1">
-        <v>5.65378690949914</v>
+        <v>2.073438882827759</v>
       </c>
       <c r="D1">
-        <v>3.035108289419973</v>
+        <v>1.993209719657898</v>
       </c>
       <c r="E1">
-        <v>1.359999975896632</v>
+        <v>2.91481351852417</v>
       </c>
     </row>
   </sheetData>
